--- a/用户代表打分表/SRA2022-G16-罗荣良打分表-QFD版本.xlsx
+++ b/用户代表打分表/SRA2022-G16-罗荣良打分表-QFD版本.xlsx
@@ -5,25 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrl\Documents\WeChat Files\wxid_97rcdhx7cc6p21\FileStorage\File\2022-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\G016ZUCC-SRA2022\用户代表打分表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D63B07-389E-4F1D-9449-F1B30E137EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78919C9-589F-4D29-B4A3-CD43A9E9E9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面标识" sheetId="3" r:id="rId1"/>
     <sheet name="打分指南" sheetId="1" r:id="rId2"/>
     <sheet name="打分表" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>文档使用指南：</t>
   </si>
@@ -318,6 +319,21 @@
   <si>
     <t>20.一键好友分享</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价值</t>
+  </si>
+  <si>
+    <t>价值%</t>
+  </si>
+  <si>
+    <t>成本%</t>
+  </si>
+  <si>
+    <t>风险%</t>
+  </si>
+  <si>
+    <t>优先级</t>
   </si>
 </sst>
 </file>
@@ -349,17 +365,20 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,6 +402,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,7 +594,7 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -591,6 +611,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,38 +665,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -654,9 +713,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -678,42 +734,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,6 +743,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1058,402 +1079,408 @@
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="2" spans="3:13">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="3:13">
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="3:13">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="3:13">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="3:13">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="3:13">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="3:13">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="3:13">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="13" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="13" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="13" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="17">
+      <c r="G29" s="9"/>
+      <c r="H29" s="10">
         <v>44692</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:M19"/>
+    <mergeCell ref="C20:M22"/>
+    <mergeCell ref="C23:M25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:M26"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:M29"/>
@@ -1463,12 +1490,6 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:M28"/>
-    <mergeCell ref="C2:M19"/>
-    <mergeCell ref="C20:M22"/>
-    <mergeCell ref="C23:M25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:M26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1487,585 +1508,620 @@
   <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:17" ht="22.8">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="37"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.6" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="27">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="30">
         <v>1</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="44"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="24" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="25"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="24" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26" t="s">
+      <c r="L9" s="38"/>
+      <c r="M9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="25"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="24">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="37">
         <v>1</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26">
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39">
         <v>1</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26" t="s">
+      <c r="L10" s="38"/>
+      <c r="M10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="25"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="38"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="24">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="37">
         <v>2</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="38"/>
+      <c r="F11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26">
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39">
         <v>2</v>
       </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26" t="s">
+      <c r="L11" s="38"/>
+      <c r="M11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="24">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="37">
         <v>3</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26">
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39">
         <v>3</v>
       </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26" t="s">
+      <c r="L12" s="38"/>
+      <c r="M12" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="24">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="37">
         <v>4</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26">
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39">
         <v>4</v>
       </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26" t="s">
+      <c r="L13" s="38"/>
+      <c r="M13" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="25"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="24">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="37">
         <v>5</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26">
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39">
         <v>5</v>
       </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26" t="s">
+      <c r="L14" s="38"/>
+      <c r="M14" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="25"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="24">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="37">
         <v>6</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26">
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39">
         <v>6</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="25"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="24">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="37">
         <v>7</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39">
         <v>7</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26" t="s">
+      <c r="L16" s="38"/>
+      <c r="M16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="25"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="24">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="37">
         <v>8</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="38"/>
+      <c r="F17" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26">
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39">
         <v>8</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26" t="s">
+      <c r="L17" s="38"/>
+      <c r="M17" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="38"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="24">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="37">
         <v>9</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26">
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39">
         <v>9</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26" t="s">
+      <c r="L18" s="38"/>
+      <c r="M18" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="38"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="27">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="30">
         <v>2</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="31"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="34"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="27">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="30">
         <v>3</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="1:17" ht="15.6" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:Q25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:Q20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:Q12"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:B25"/>
     <mergeCell ref="D2:Q2"/>
@@ -2082,41 +2138,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:Q25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:Q20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2125,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="15.6"/>
@@ -2137,9 +2158,14 @@
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" s="48" t="s">
         <v>45</v>
       </c>
@@ -2147,7 +2173,7 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9">
       <c r="A2" s="49" t="s">
         <v>46</v>
       </c>
@@ -2155,7 +2181,7 @@
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9">
       <c r="A3" s="48" t="s">
         <v>47</v>
       </c>
@@ -2163,267 +2189,694 @@
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="E4" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1">
         <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="E5">
+        <f>SUM(C5:D5)</f>
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <f>E5/$E$25</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="G5">
+        <f>C5/$C$25</f>
+        <v>7.43801652892562E-2</v>
+      </c>
+      <c r="H5">
+        <f>D5/$D$25</f>
+        <v>0.10112359550561797</v>
+      </c>
+      <c r="I5">
+        <f>F5/(G5*C5)+D5*H5</f>
+        <v>1.0381546875928898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1">
         <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.05" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="E6">
+        <f t="shared" ref="E6:E24" si="0">SUM(C6:D6)</f>
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F24" si="1">E6/$E$25</f>
+        <v>5.2380952380952382E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G24" si="2">C6/$C$25</f>
+        <v>4.9586776859504134E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H24" si="3">D6/$D$25</f>
+        <v>5.6179775280898875E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I24" si="4">F6/(G6*C6)+D6*H6</f>
+        <v>0.45695707746269543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.05" customHeight="1">
+      <c r="A7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="17"/>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>6.6115702479338845E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>6.741573033707865E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>0.53053604868913862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="17"/>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>4.1322314049586778E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>5.6179775280898875E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>0.5113750668806849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="17"/>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5.2380952380952382E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>5.7851239669421489E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0.30912416330898329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="17"/>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>5.7851239669421489E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>5.6179775280898875E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0.42200674812461103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="17"/>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.05" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>3.8095238095238099E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>4.1322314049586778E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>3.3707865168539325E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0.28550454788657037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.05" customHeight="1">
+      <c r="A12" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="17"/>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>7.43801652892562E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0.10112359550561797</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>1.0381546875928898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="17"/>
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5.2380952380952382E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>5.7851239669421489E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0.30912416330898329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="17"/>
       <c r="C14">
         <v>9</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>7.43801652892562E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>0.10112359550561797</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>1.0381546875928898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="17"/>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>6.1904761904761907E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>4.9586776859504134E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>7.8651685393258425E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>0.75863058082159207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="17"/>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>4.1322314049586778E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>0.38720385232744781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="17"/>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>4.1322314049586778E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>0.38720385232744781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="17"/>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>4.9586776859504134E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0.3398281909517864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="17"/>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>4.1322314049586778E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>0.20627715355805243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="17"/>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>4.9586776859504134E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>3.3707865168539325E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>0.24517121455323701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="17"/>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>4.1322314049586778E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0.20627715355805243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="17"/>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>3.3057851239669422E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>0.26101524879614768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="17"/>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>3.3057851239669422E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>0.19129547886570358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="17"/>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1.9047619047619049E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>0.26732061114083583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="C25">
+        <f>SUM(C5:C24)</f>
+        <v>121</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D5:D24)</f>
+        <v>89</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E5:E24)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
@@ -2435,55 +2888,55 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="51" ht="16.05" customHeight="1"/>
     <row r="52" ht="16.05" customHeight="1"/>
@@ -2521,18 +2974,22 @@
     <row r="84" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
@@ -2541,22 +2998,18 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
